--- a/L4T_R16_TPT1838/bootloader/ventana/cfg/tpt1838_partitions.xlsx
+++ b/L4T_R16_TPT1838/bootloader/ventana/cfg/tpt1838_partitions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t xml:space="preserve">PartitionId</t>
   </si>
@@ -52,21 +52,39 @@
     <t xml:space="preserve">Size(MB)</t>
   </si>
   <si>
+    <t xml:space="preserve">Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS</t>
+  </si>
+  <si>
     <t xml:space="preserve">BCT</t>
   </si>
   <si>
+    <t xml:space="preserve">Boot Configuration Table</t>
+  </si>
+  <si>
     <t xml:space="preserve">boot_config_table</t>
   </si>
   <si>
     <t xml:space="preserve">PT</t>
   </si>
   <si>
+    <t xml:space="preserve">Partition Table</t>
+  </si>
+  <si>
     <t xml:space="preserve">partition_table</t>
   </si>
   <si>
     <t xml:space="preserve">EBT</t>
   </si>
   <si>
+    <t xml:space="preserve">Bootloader</t>
+  </si>
+  <si>
     <t xml:space="preserve">bootloader</t>
   </si>
   <si>
@@ -88,6 +106,9 @@
     <t xml:space="preserve">recovery.img</t>
   </si>
   <si>
+    <t xml:space="preserve">/dev/block/mmcblk0p1</t>
+  </si>
+  <si>
     <t xml:space="preserve">LNX</t>
   </si>
   <si>
@@ -97,6 +118,9 @@
     <t xml:space="preserve">boot.img</t>
   </si>
   <si>
+    <t xml:space="preserve">/dev/block/mmcblk0p2</t>
+  </si>
+  <si>
     <t xml:space="preserve">APP</t>
   </si>
   <si>
@@ -106,37 +130,82 @@
     <t xml:space="preserve">system.img</t>
   </si>
   <si>
+    <t xml:space="preserve">/dev/block/mmcblk0p3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext4</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAC</t>
   </si>
   <si>
     <t xml:space="preserve">Cache, frequently accessed data and app components</t>
   </si>
   <si>
+    <t xml:space="preserve">/dev/block/mmcblk0p4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/cache</t>
+  </si>
+  <si>
     <t xml:space="preserve">MSC</t>
   </si>
   <si>
     <t xml:space="preserve">miscellaneous system settings</t>
   </si>
   <si>
+    <t xml:space="preserve">/dev/block/mmcblk0p5</t>
+  </si>
+  <si>
     <t xml:space="preserve">PIA</t>
   </si>
   <si>
+    <t xml:space="preserve">/dev/block/mmcblk0p6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/mnt/pia</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEC</t>
   </si>
   <si>
+    <t xml:space="preserve">/dev/block/mmcblk0p7</t>
+  </si>
+  <si>
     <t xml:space="preserve">USP</t>
   </si>
   <si>
+    <t xml:space="preserve">/dev/block/mmcblk0p8</t>
+  </si>
+  <si>
     <t xml:space="preserve">PDA</t>
   </si>
   <si>
+    <t xml:space="preserve">/dev/block/mmcblk0p9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/mnt/persdata</t>
+  </si>
+  <si>
     <t xml:space="preserve">UDA</t>
   </si>
   <si>
     <t xml:space="preserve">contains the user’s data</t>
   </si>
   <si>
+    <t xml:space="preserve">/dev/block/mmcblk0p10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/data</t>
+  </si>
+  <si>
     <t xml:space="preserve">GPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUID Partition Table</t>
   </si>
 </sst>
 </file>
@@ -146,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -168,13 +237,26 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -211,8 +293,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -225,6 +315,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -233,49 +383,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,10 +443,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
@@ -311,10 +474,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1024</v>
@@ -339,13 +505,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1536</v>
@@ -370,10 +539,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>3072</v>
@@ -398,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>3584</v>
@@ -426,22 +595,25 @@
         <f aca="false">G6*I6/1024/1024</f>
         <v>6</v>
       </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>5120</v>
@@ -460,22 +632,25 @@
         <f aca="false">G7*I7/1024/1024</f>
         <v>8</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7168</v>
@@ -494,19 +669,28 @@
         <f aca="false">G8*I8/1024/1024</f>
         <v>768</v>
       </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>203776</v>
@@ -525,19 +709,28 @@
         <f aca="false">G9*I9/1024/1024</f>
         <v>900</v>
       </c>
+      <c r="K9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>434176</v>
@@ -556,13 +749,16 @@
         <f aca="false">G10*I10/1024/1024</f>
         <v>2</v>
       </c>
+      <c r="K10" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>434688</v>
@@ -581,13 +777,22 @@
         <f aca="false">G11*I11/1024/1024</f>
         <v>512</v>
       </c>
+      <c r="K11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>565760</v>
@@ -606,16 +811,19 @@
         <f aca="false">G12*I12/1024/1024</f>
         <v>20</v>
       </c>
+      <c r="K12" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>570880</v>
@@ -634,13 +842,16 @@
         <f aca="false">G13*I13/1024/1024</f>
         <v>140</v>
       </c>
+      <c r="K13" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>606720</v>
@@ -659,19 +870,28 @@
         <f aca="false">G14*I14/1024/1024</f>
         <v>20</v>
       </c>
+      <c r="K14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>611840</v>
@@ -690,16 +910,28 @@
         <f aca="false">G15*I15/1024/1024</f>
         <v>28136</v>
       </c>
+      <c r="K15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7814656</v>

--- a/L4T_R16_TPT1838/bootloader/ventana/cfg/tpt1838_partitions.xlsx
+++ b/L4T_R16_TPT1838/bootloader/ventana/cfg/tpt1838_partitions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t xml:space="preserve">PartitionId</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">BytesPerSector</t>
   </si>
   <si>
+    <t xml:space="preserve">Size(Byte)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Size(MB)</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">GP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary GPT partition</t>
   </si>
   <si>
     <t xml:space="preserve">SOS</t>
@@ -383,18 +389,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,19 +443,22 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
@@ -465,6 +474,10 @@
         <v>4096</v>
       </c>
       <c r="J2" s="0" t="n">
+        <f aca="false">G2*I2</f>
+        <v>4194304</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <f aca="false">G2*I2/1024/1024</f>
         <v>4</v>
       </c>
@@ -474,13 +487,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1024</v>
@@ -496,6 +509,10 @@
         <v>4096</v>
       </c>
       <c r="J3" s="0" t="n">
+        <f aca="false">G3*I3</f>
+        <v>2097152</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <f aca="false">G3*I3/1024/1024</f>
         <v>2</v>
       </c>
@@ -505,16 +522,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1536</v>
@@ -530,6 +547,10 @@
         <v>4096</v>
       </c>
       <c r="J4" s="0" t="n">
+        <f aca="false">G4*I4</f>
+        <v>6291456</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <f aca="false">G4*I4/1024/1024</f>
         <v>6</v>
       </c>
@@ -539,10 +560,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>3072</v>
@@ -558,6 +582,10 @@
         <v>4096</v>
       </c>
       <c r="J5" s="0" t="n">
+        <f aca="false">G5*I5</f>
+        <v>2097152</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <f aca="false">G5*I5/1024/1024</f>
         <v>2</v>
       </c>
@@ -567,16 +595,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>3584</v>
@@ -592,11 +620,15 @@
         <v>4096</v>
       </c>
       <c r="J6" s="0" t="n">
+        <f aca="false">G6*I6</f>
+        <v>6291456</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <f aca="false">G6*I6/1024/1024</f>
         <v>6</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>28</v>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,16 +636,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>5120</v>
@@ -629,11 +661,15 @@
         <v>4096</v>
       </c>
       <c r="J7" s="0" t="n">
+        <f aca="false">G7*I7</f>
+        <v>8388608</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <f aca="false">G7*I7/1024/1024</f>
         <v>8</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,16 +677,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7168</v>
@@ -666,17 +702,21 @@
         <v>4096</v>
       </c>
       <c r="J8" s="0" t="n">
+        <f aca="false">G8*I8</f>
+        <v>805306368</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <f aca="false">G8*I8/1024/1024</f>
         <v>768</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>37</v>
+      <c r="L8" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>203776</v>
@@ -706,17 +746,21 @@
         <v>4096</v>
       </c>
       <c r="J9" s="0" t="n">
+        <f aca="false">G9*I9</f>
+        <v>943718400</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <f aca="false">G9*I9/1024/1024</f>
         <v>900</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>42</v>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>434176</v>
@@ -746,11 +790,15 @@
         <v>4096</v>
       </c>
       <c r="J10" s="0" t="n">
+        <f aca="false">G10*I10</f>
+        <v>2097152</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <f aca="false">G10*I10/1024/1024</f>
         <v>2</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>45</v>
+      <c r="L10" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>434688</v>
@@ -774,17 +822,21 @@
         <v>4096</v>
       </c>
       <c r="J11" s="0" t="n">
+        <f aca="false">G11*I11</f>
+        <v>536870912</v>
+      </c>
+      <c r="K11" s="0" t="n">
         <f aca="false">G11*I11/1024/1024</f>
         <v>512</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>48</v>
+      <c r="L11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,7 +844,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>565760</v>
@@ -808,11 +860,15 @@
         <v>4096</v>
       </c>
       <c r="J12" s="0" t="n">
+        <f aca="false">G12*I12</f>
+        <v>20971520</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <f aca="false">G12*I12/1024/1024</f>
         <v>20</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>50</v>
+      <c r="L12" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,10 +876,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>570880</v>
@@ -839,11 +895,15 @@
         <v>4096</v>
       </c>
       <c r="J13" s="0" t="n">
+        <f aca="false">G13*I13</f>
+        <v>146800640</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <f aca="false">G13*I13/1024/1024</f>
         <v>140</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>52</v>
+      <c r="L13" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,7 +911,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>606720</v>
@@ -867,17 +927,21 @@
         <v>4096</v>
       </c>
       <c r="J14" s="0" t="n">
+        <f aca="false">G14*I14</f>
+        <v>20971520</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <f aca="false">G14*I14/1024/1024</f>
         <v>20</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>55</v>
+      <c r="L14" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>38</v>
+        <v>57</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>611840</v>
@@ -907,17 +971,21 @@
         <v>4096</v>
       </c>
       <c r="J15" s="0" t="n">
+        <f aca="false">G15*I15</f>
+        <v>29502734336</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <f aca="false">G15*I15/1024/1024</f>
         <v>28136</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>59</v>
+      <c r="L15" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>38</v>
+        <v>61</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7814656</v>
@@ -947,6 +1015,10 @@
         <v>4096</v>
       </c>
       <c r="J16" s="0" t="n">
+        <f aca="false">G16*I16</f>
+        <v>2097152</v>
+      </c>
+      <c r="K16" s="0" t="n">
         <f aca="false">G16*I16/1024/1024</f>
         <v>2</v>
       </c>
@@ -956,8 +1028,8 @@
         <f aca="false">SUM(G2:G16)</f>
         <v>7815168</v>
       </c>
-      <c r="J20" s="0" t="n">
-        <f aca="false">SUM(J2:J16)/1024</f>
+      <c r="K20" s="0" t="n">
+        <f aca="false">SUM(K2:K16)/1024</f>
         <v>29.8125</v>
       </c>
     </row>
